--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis documentos\ANDREA\isis-3302-ProyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0371A4C0-DD8B-4476-8512-A3F491CD25DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2BD97E-0042-4202-A0E8-0E93F25DA838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{C307CFF9-2E0C-4868-9E05-DEFD082B7BA8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>Paciente</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Sala (Tipo 2)</t>
+  </si>
+  <si>
+    <t>Gravedad</t>
   </si>
 </sst>
 </file>
@@ -247,7 +250,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -318,11 +321,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -353,11 +365,88 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -667,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF20848D-5462-43A8-B7E5-4468F6CA8448}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:H32"/>
@@ -678,7 +767,7 @@
     <col min="1" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -703,8 +792,14 @@
       <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -713,20 +808,16 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="13"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4" t="str">
-        <f ca="1">IF(I3&lt;1,$J$2,IF(I3&lt;2,$J$3,$J$4))</f>
-        <v>Grave</v>
+        <f ca="1">IF(I3&lt;1,$A$35,IF(I3&lt;2,$A$36,$A$37))</f>
+        <v>Leve</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">ROUND(RAND(),0)</f>
@@ -734,15 +825,15 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:H3" ca="1" si="0">ROUND(RAND(),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -750,1100 +841,1234 @@
       </c>
       <c r="H3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
         <f ca="1">ROUND(RANDBETWEEN(0,2),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <f ca="1">SUM(C3:H3)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f t="shared" ref="B4:B32" ca="1" si="1">IF(I4&lt;1,$J$2,IF(I4&lt;2,$J$3,$J$4))</f>
+        <f ca="1">IF(I4&lt;1,$A$35,IF(I4&lt;2,$A$36,$A$37))</f>
         <v>Leve</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:H32" ca="1" si="2">ROUND(RAND(),0)</f>
+        <f t="shared" ref="C4:H32" ca="1" si="1">ROUND(RAND(),0)</f>
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I32" ca="1" si="3">ROUND(RANDBETWEEN(0,2),0)</f>
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I4:I32" ca="1" si="2">ROUND(RANDBETWEEN(0,2),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J32" ca="1" si="3">SUM(C4:H4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(I5&lt;1,$A$35,IF(I5&lt;2,$A$36,$A$37))</f>
         <v>Leve</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Medio</v>
+        <f ca="1">IF(I6&lt;1,$A$35,IF(I6&lt;2,$A$36,$A$37))</f>
+        <v>Leve</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f ca="1">ROUND(RANDBETWEEN(0,2),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(I7&lt;1,$A$35,IF(I7&lt;2,$A$36,$A$37))</f>
         <v>Grave</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(I8&lt;1,$A$35,IF(I8&lt;2,$A$36,$A$37))</f>
         <v>Medio</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(I9&lt;1,$A$35,IF(I9&lt;2,$A$36,$A$37))</f>
         <v>Medio</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Grave</v>
+        <f ca="1">IF(I10&lt;1,$A$35,IF(I10&lt;2,$A$36,$A$37))</f>
+        <v>Medio</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <f ca="1">SUM(C10:H10)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(I11&lt;1,$A$35,IF(I11&lt;2,$A$36,$A$37))</f>
         <v>Medio</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Grave</v>
+        <f ca="1">IF(I12&lt;1,$A$35,IF(I12&lt;2,$A$36,$A$37))</f>
+        <v>Medio</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(I13&lt;1,$A$35,IF(I13&lt;2,$A$36,$A$37))</f>
         <v>Grave</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Grave</v>
+        <f ca="1">IF(I14&lt;1,$A$35,IF(I14&lt;2,$A$36,$A$37))</f>
+        <v>Leve</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Leve</v>
+        <f ca="1">IF(I15&lt;1,$A$35,IF(I15&lt;2,$A$36,$A$37))</f>
+        <v>Medio</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Grave</v>
+        <f ca="1">IF(I16&lt;1,$A$35,IF(I16&lt;2,$A$36,$A$37))</f>
+        <v>Leve</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Leve</v>
+        <f ca="1">IF(I17&lt;1,$A$35,IF(I17&lt;2,$A$36,$A$37))</f>
+        <v>Medio</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(I18&lt;1,$A$35,IF(I18&lt;2,$A$36,$A$37))</f>
         <v>Leve</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Grave</v>
+        <f ca="1">IF(I19&lt;1,$A$35,IF(I19&lt;2,$A$36,$A$37))</f>
+        <v>Leve</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Grave</v>
+        <f ca="1">IF(I20&lt;1,$A$35,IF(I20&lt;2,$A$36,$A$37))</f>
+        <v>Leve</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Grave</v>
+        <f ca="1">IF(I21&lt;1,$A$35,IF(I21&lt;2,$A$36,$A$37))</f>
+        <v>Medio</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(I22&lt;1,$A$35,IF(I22&lt;2,$A$36,$A$37))</f>
         <v>Medio</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Grave</v>
+        <f ca="1">IF(I23&lt;1,$A$35,IF(I23&lt;2,$A$36,$A$37))</f>
+        <v>Medio</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f ca="1">ROUND(RAND(),0)</f>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Leve</v>
+        <f ca="1">IF(I24&lt;1,$A$35,IF(I24&lt;2,$A$36,$A$37))</f>
+        <v>Grave</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Leve</v>
+        <f ca="1">IF(I25&lt;1,$A$35,IF(I25&lt;2,$A$36,$A$37))</f>
+        <v>Medio</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Grave</v>
+        <f ca="1">IF(I26&lt;1,$A$35,IF(I26&lt;2,$A$36,$A$37))</f>
+        <v>Leve</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(I27&lt;1,$A$35,IF(I27&lt;2,$A$36,$A$37))</f>
         <v>Leve</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Grave</v>
+        <f ca="1">IF(I28&lt;1,$A$35,IF(I28&lt;2,$A$36,$A$37))</f>
+        <v>Leve</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Leve</v>
+        <f ca="1">IF(I29&lt;1,$A$35,IF(I29&lt;2,$A$36,$A$37))</f>
+        <v>Grave</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Grave</v>
+        <f ca="1">IF(I30&lt;1,$A$35,IF(I30&lt;2,$A$36,$A$37))</f>
+        <v>Leve</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Leve</v>
+        <f ca="1">IF(I31&lt;1,$A$35,IF(I31&lt;2,$A$36,$A$37))</f>
+        <v>Grave</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(I32&lt;1,$A$35,IF(I32&lt;2,$A$36,$A$37))</f>
         <v>Leve</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="A1:A2"/>
@@ -1854,6 +2079,36 @@
     <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B3:B32">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"Grave"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J32">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
+      <formula>1</formula>
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J32">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
+      <formula>4</formula>
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+      <formula>4</formula>
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1863,7 +2118,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B13"/>
+      <selection activeCell="B10" sqref="B10:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1904,7 +2159,7 @@
       </c>
       <c r="E2" s="3">
         <f ca="1">ROUND(RANDBETWEEN(1,3),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1913,7 +2168,7 @@
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B7" ca="1" si="0">ROUND(RANDBETWEEN(1,3),0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>47</v>
@@ -1923,7 +2178,7 @@
       </c>
       <c r="E3" s="3">
         <f t="shared" ref="E3:E7" ca="1" si="1">ROUND(RANDBETWEEN(1,3),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.15">
@@ -1942,7 +2197,7 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.15">
@@ -1951,7 +2206,7 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>46</v>
@@ -1961,7 +2216,7 @@
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.15">
@@ -1970,7 +2225,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>46</v>
@@ -1980,7 +2235,7 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1989,7 +2244,7 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>46</v>
@@ -1999,7 +2254,7 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -2019,7 +2274,7 @@
       </c>
       <c r="B10" s="3">
         <f ca="1">ROUND(RANDBETWEEN(2,5),0)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2028,7 +2283,7 @@
       </c>
       <c r="B11" s="3">
         <f ca="1">ROUND(RANDBETWEEN(2,5),0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -2037,7 +2292,7 @@
       </c>
       <c r="B12" s="3">
         <f ca="1">ROUND(RANDBETWEEN(3,20),0)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2046,7 +2301,7 @@
       </c>
       <c r="B13" s="3">
         <f ca="1">ROUND(RANDBETWEEN(3,20),0)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.15">

--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis documentos\ANDREA\isis-3302-ProyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2BD97E-0042-4202-A0E8-0E93F25DA838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C37D233-4CA9-48B7-95A8-49FC64688218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{C307CFF9-2E0C-4868-9E05-DEFD082B7BA8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>Paciente</t>
   </si>
@@ -162,27 +162,9 @@
     <t>Procedimiento</t>
   </si>
   <si>
-    <t>Medico</t>
-  </si>
-  <si>
-    <t>Sala</t>
-  </si>
-  <si>
     <t>duracion</t>
   </si>
   <si>
-    <t>Enfermera</t>
-  </si>
-  <si>
-    <t>Tipo 1</t>
-  </si>
-  <si>
-    <t>tipo 2</t>
-  </si>
-  <si>
-    <t>Tipo 2</t>
-  </si>
-  <si>
     <t>1 h</t>
   </si>
   <si>
@@ -196,15 +178,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>insumo</t>
-  </si>
-  <si>
-    <t>Sala (Tipo 1)</t>
-  </si>
-  <si>
-    <t>Sala (Tipo 2)</t>
   </si>
   <si>
     <t>Gravedad</t>
@@ -334,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -356,6 +329,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -365,11 +344,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,88 +747,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>53</v>
+      <c r="I1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="12"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4" t="str">
-        <f ca="1">IF(I3&lt;1,$A$35,IF(I3&lt;2,$A$36,$A$37))</f>
-        <v>Leve</v>
+        <f t="shared" ref="B3:B32" ca="1" si="0">IF(I3&lt;1,$A$35,IF(I3&lt;2,$A$36,$A$37))</f>
+        <v>Medio</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">ROUND(RAND(),0)</f>
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:H3" ca="1" si="0">ROUND(RAND(),0)</f>
+        <f t="shared" ref="D3:H3" ca="1" si="1">ROUND(RAND(),0)</f>
         <v>1</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I3" s="1">
         <f ca="1">ROUND(RANDBETWEEN(0,2),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="2">
         <f ca="1">SUM(C3:H3)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -857,40 +836,40 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f ca="1">IF(I4&lt;1,$A$35,IF(I4&lt;2,$A$36,$A$37))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Leve</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:H32" ca="1" si="1">ROUND(RAND(),0)</f>
-        <v>1</v>
+        <f t="shared" ref="C4:H32" ca="1" si="2">ROUND(RAND(),0)</f>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I32" ca="1" si="2">ROUND(RANDBETWEEN(0,2),0)</f>
+        <f t="shared" ref="I4:I32" ca="1" si="3">ROUND(RANDBETWEEN(0,2),0)</f>
         <v>1</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J32" ca="1" si="3">SUM(C4:H4)</f>
-        <v>4</v>
+        <f t="shared" ref="J4:J32" ca="1" si="4">SUM(C4:H4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -898,40 +877,40 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f ca="1">IF(I5&lt;1,$A$35,IF(I5&lt;2,$A$36,$A$37))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Leve</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -943,36 +922,36 @@
         <v>Leve</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
         <f ca="1">ROUND(RANDBETWEEN(0,2),0)</f>
         <v>1</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -980,40 +959,40 @@
         <v>14</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f ca="1">IF(I7&lt;1,$A$35,IF(I7&lt;2,$A$36,$A$37))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Grave</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1021,39 +1000,39 @@
         <v>15</v>
       </c>
       <c r="B8" s="4" t="str">
-        <f ca="1">IF(I8&lt;1,$A$35,IF(I8&lt;2,$A$36,$A$37))</f>
-        <v>Medio</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Leve</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -1062,40 +1041,40 @@
         <v>16</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f ca="1">IF(I9&lt;1,$A$35,IF(I9&lt;2,$A$36,$A$37))</f>
-        <v>Medio</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Leve</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1103,40 +1082,40 @@
         <v>17</v>
       </c>
       <c r="B10" s="4" t="str">
-        <f ca="1">IF(I10&lt;1,$A$35,IF(I10&lt;2,$A$36,$A$37))</f>
-        <v>Medio</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Leve</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="J10" s="2">
         <f ca="1">SUM(C10:H10)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1144,40 +1123,40 @@
         <v>18</v>
       </c>
       <c r="B11" s="4" t="str">
-        <f ca="1">IF(I11&lt;1,$A$35,IF(I11&lt;2,$A$36,$A$37))</f>
-        <v>Medio</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Grave</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1185,40 +1164,40 @@
         <v>19</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f ca="1">IF(I12&lt;1,$A$35,IF(I12&lt;2,$A$36,$A$37))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Medio</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1226,39 +1205,39 @@
         <v>20</v>
       </c>
       <c r="B13" s="4" t="str">
-        <f ca="1">IF(I13&lt;1,$A$35,IF(I13&lt;2,$A$36,$A$37))</f>
-        <v>Grave</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Medio</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -1267,40 +1246,40 @@
         <v>21</v>
       </c>
       <c r="B14" s="4" t="str">
-        <f ca="1">IF(I14&lt;1,$A$35,IF(I14&lt;2,$A$36,$A$37))</f>
-        <v>Leve</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Medio</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1308,39 +1287,39 @@
         <v>22</v>
       </c>
       <c r="B15" s="4" t="str">
-        <f ca="1">IF(I15&lt;1,$A$35,IF(I15&lt;2,$A$36,$A$37))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Medio</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -1349,40 +1328,40 @@
         <v>23</v>
       </c>
       <c r="B16" s="4" t="str">
-        <f ca="1">IF(I16&lt;1,$A$35,IF(I16&lt;2,$A$36,$A$37))</f>
-        <v>Leve</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Medio</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1390,40 +1369,40 @@
         <v>24</v>
       </c>
       <c r="B17" s="4" t="str">
-        <f ca="1">IF(I17&lt;1,$A$35,IF(I17&lt;2,$A$36,$A$37))</f>
-        <v>Medio</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Grave</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f ca="1">SUM(C17:H17)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1431,40 +1410,40 @@
         <v>25</v>
       </c>
       <c r="B18" s="4" t="str">
-        <f ca="1">IF(I18&lt;1,$A$35,IF(I18&lt;2,$A$36,$A$37))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Leve</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f ca="1">SUM(C18:H18)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1472,40 +1451,40 @@
         <v>26</v>
       </c>
       <c r="B19" s="4" t="str">
-        <f ca="1">IF(I19&lt;1,$A$35,IF(I19&lt;2,$A$36,$A$37))</f>
-        <v>Leve</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Grave</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1513,39 +1492,39 @@
         <v>27</v>
       </c>
       <c r="B20" s="4" t="str">
-        <f ca="1">IF(I20&lt;1,$A$35,IF(I20&lt;2,$A$36,$A$37))</f>
-        <v>Leve</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Medio</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -1554,40 +1533,40 @@
         <v>28</v>
       </c>
       <c r="B21" s="4" t="str">
-        <f ca="1">IF(I21&lt;1,$A$35,IF(I21&lt;2,$A$36,$A$37))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Medio</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1595,39 +1574,39 @@
         <v>29</v>
       </c>
       <c r="B22" s="4" t="str">
-        <f ca="1">IF(I22&lt;1,$A$35,IF(I22&lt;2,$A$36,$A$37))</f>
-        <v>Medio</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Grave</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -1636,40 +1615,40 @@
         <v>30</v>
       </c>
       <c r="B23" s="4" t="str">
-        <f ca="1">IF(I23&lt;1,$A$35,IF(I23&lt;2,$A$36,$A$37))</f>
-        <v>Medio</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Leve</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <f ca="1">ROUND(RAND(),0)</f>
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1677,40 +1656,40 @@
         <v>31</v>
       </c>
       <c r="B24" s="4" t="str">
-        <f ca="1">IF(I24&lt;1,$A$35,IF(I24&lt;2,$A$36,$A$37))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Grave</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1718,40 +1697,40 @@
         <v>32</v>
       </c>
       <c r="B25" s="4" t="str">
-        <f ca="1">IF(I25&lt;1,$A$35,IF(I25&lt;2,$A$36,$A$37))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Medio</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1759,40 +1738,40 @@
         <v>33</v>
       </c>
       <c r="B26" s="4" t="str">
-        <f ca="1">IF(I26&lt;1,$A$35,IF(I26&lt;2,$A$36,$A$37))</f>
-        <v>Leve</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Medio</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1800,40 +1779,40 @@
         <v>34</v>
       </c>
       <c r="B27" s="4" t="str">
-        <f ca="1">IF(I27&lt;1,$A$35,IF(I27&lt;2,$A$36,$A$37))</f>
-        <v>Leve</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Medio</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1841,39 +1820,39 @@
         <v>35</v>
       </c>
       <c r="B28" s="4" t="str">
-        <f ca="1">IF(I28&lt;1,$A$35,IF(I28&lt;2,$A$36,$A$37))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Leve</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -1882,40 +1861,40 @@
         <v>36</v>
       </c>
       <c r="B29" s="4" t="str">
-        <f ca="1">IF(I29&lt;1,$A$35,IF(I29&lt;2,$A$36,$A$37))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Grave</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1923,40 +1902,40 @@
         <v>37</v>
       </c>
       <c r="B30" s="4" t="str">
-        <f ca="1">IF(I30&lt;1,$A$35,IF(I30&lt;2,$A$36,$A$37))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>Leve</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1964,39 +1943,39 @@
         <v>38</v>
       </c>
       <c r="B31" s="4" t="str">
-        <f ca="1">IF(I31&lt;1,$A$35,IF(I31&lt;2,$A$36,$A$37))</f>
-        <v>Grave</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Medio</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2005,40 +1984,40 @@
         <v>39</v>
       </c>
       <c r="B32" s="4" t="str">
-        <f ca="1">IF(I32&lt;1,$A$35,IF(I32&lt;2,$A$36,$A$37))</f>
-        <v>Leve</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>Medio</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -2085,26 +2064,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J32">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>3</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J32">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
       <formula>4</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
       <formula>4</formula>
       <formula>6</formula>
     </cfRule>
@@ -2118,7 +2097,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B13"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2133,176 +2112,98 @@
       <c r="B1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <f ca="1">ROUND(RANDBETWEEN(1,3),0)</f>
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="3">
-        <f ca="1">ROUND(RANDBETWEEN(1,3),0)</f>
-        <v>2</v>
-      </c>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <f t="shared" ref="B3:B7" ca="1" si="0">ROUND(RANDBETWEEN(1,3),0)</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:E7" ca="1" si="1">ROUND(RANDBETWEEN(1,3),0)</f>
-        <v>3</v>
-      </c>
+      <c r="B3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="B4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="B7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="3">
-        <f ca="1">ROUND(RANDBETWEEN(2,5),0)</f>
-        <v>3</v>
-      </c>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="3">
-        <f ca="1">ROUND(RANDBETWEEN(2,5),0)</f>
-        <v>2</v>
-      </c>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="3">
-        <f ca="1">ROUND(RANDBETWEEN(3,20),0)</f>
-        <v>13</v>
-      </c>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="3">
-        <f ca="1">ROUND(RANDBETWEEN(3,20),0)</f>
-        <v>8</v>
-      </c>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D19" s="5"/>

--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis documentos\ANDREA\isis-3302-ProyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C37D233-4CA9-48B7-95A8-49FC64688218}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED91E45-9129-4C48-9AEC-33B76FEE935C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{C307CFF9-2E0C-4868-9E05-DEFD082B7BA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C307CFF9-2E0C-4868-9E05-DEFD082B7BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -329,6 +329,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,17 +350,91 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -735,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF20848D-5462-43A8-B7E5-4468F6CA8448}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -747,48 +827,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -796,19 +876,19 @@
       </c>
       <c r="B3" s="4" t="str">
         <f t="shared" ref="B3:B32" ca="1" si="0">IF(I3&lt;1,$A$35,IF(I3&lt;2,$A$36,$A$37))</f>
-        <v>Medio</v>
+        <v>Leve</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">ROUND(RAND(),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:H3" ca="1" si="1">ROUND(RAND(),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -816,7 +896,7 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -824,11 +904,11 @@
       </c>
       <c r="I3" s="1">
         <f ca="1">ROUND(RANDBETWEEN(0,2),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2">
         <f ca="1">SUM(C3:H3)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -841,11 +921,11 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:H32" ca="1" si="2">ROUND(RAND(),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -857,11 +937,11 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I32" ca="1" si="3">ROUND(RANDBETWEEN(0,2),0)</f>
@@ -878,15 +958,15 @@
       </c>
       <c r="B5" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Leve</v>
+        <v>Grave</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -902,15 +982,15 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -919,7 +999,7 @@
       </c>
       <c r="B6" s="4" t="str">
         <f ca="1">IF(I6&lt;1,$A$35,IF(I6&lt;2,$A$36,$A$37))</f>
-        <v>Leve</v>
+        <v>Grave</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -927,31 +1007,31 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
         <f ca="1">ROUND(RANDBETWEEN(0,2),0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -960,7 +1040,7 @@
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Grave</v>
+        <v>Leve</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -968,7 +1048,7 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -984,11 +1064,11 @@
       </c>
       <c r="H7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1005,15 +1085,15 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1021,11 +1101,11 @@
       </c>
       <c r="G8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -1033,7 +1113,7 @@
       </c>
       <c r="J8" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1042,7 +1122,7 @@
       </c>
       <c r="B9" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Leve</v>
+        <v>Medio</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1050,11 +1130,11 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1062,19 +1142,19 @@
       </c>
       <c r="G9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1083,11 +1163,11 @@
       </c>
       <c r="B10" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Leve</v>
+        <v>Grave</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1103,7 +1183,7 @@
       </c>
       <c r="G10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1111,11 +1191,11 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
         <f ca="1">SUM(C10:H10)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1144,7 +1224,7 @@
       </c>
       <c r="G11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1156,7 +1236,7 @@
       </c>
       <c r="J11" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1177,15 +1257,15 @@
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1197,7 +1277,7 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1222,11 +1302,11 @@
       </c>
       <c r="F13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1247,7 +1327,7 @@
       </c>
       <c r="B14" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Medio</v>
+        <v>Leve</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1263,23 +1343,23 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1292,7 +1372,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1304,11 +1384,11 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1320,7 +1400,7 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1329,15 +1409,15 @@
       </c>
       <c r="B16" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Medio</v>
+        <v>Grave</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1345,23 +1425,23 @@
       </c>
       <c r="F16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1378,7 +1458,7 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1390,11 +1470,11 @@
       </c>
       <c r="G17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -1402,7 +1482,7 @@
       </c>
       <c r="J17" s="2">
         <f ca="1">SUM(C17:H17)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1415,11 +1495,11 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1431,7 +1511,7 @@
       </c>
       <c r="G18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1443,7 +1523,7 @@
       </c>
       <c r="J18" s="2">
         <f ca="1">SUM(C18:H18)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1452,19 +1532,19 @@
       </c>
       <c r="B19" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Grave</v>
+        <v>Medio</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1472,19 +1552,19 @@
       </c>
       <c r="G19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1497,7 +1577,7 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1505,19 +1585,19 @@
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -1525,7 +1605,7 @@
       </c>
       <c r="J20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1546,15 +1626,15 @@
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1566,7 +1646,7 @@
       </c>
       <c r="J21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1575,7 +1655,7 @@
       </c>
       <c r="B22" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Grave</v>
+        <v>Medio</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1587,11 +1667,11 @@
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1603,7 +1683,7 @@
       </c>
       <c r="I22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1624,11 +1704,11 @@
       </c>
       <c r="D23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1636,7 +1716,7 @@
       </c>
       <c r="G23" s="3">
         <f ca="1">ROUND(RAND(),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1648,7 +1728,7 @@
       </c>
       <c r="J23" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1669,7 +1749,7 @@
       </c>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1681,7 +1761,7 @@
       </c>
       <c r="H24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" ca="1" si="3"/>
@@ -1698,7 +1778,7 @@
       </c>
       <c r="B25" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Medio</v>
+        <v>Leve</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1706,7 +1786,7 @@
       </c>
       <c r="D25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1722,11 +1802,11 @@
       </c>
       <c r="H25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1739,27 +1819,27 @@
       </c>
       <c r="B26" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Medio</v>
+        <v>Leve</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1767,11 +1847,11 @@
       </c>
       <c r="I26" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1784,15 +1864,15 @@
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1800,7 +1880,7 @@
       </c>
       <c r="G27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1812,7 +1892,7 @@
       </c>
       <c r="J27" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1821,7 +1901,7 @@
       </c>
       <c r="B28" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Leve</v>
+        <v>Medio</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1833,11 +1913,11 @@
       </c>
       <c r="E28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1849,7 +1929,7 @@
       </c>
       <c r="I28" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -1862,11 +1942,11 @@
       </c>
       <c r="B29" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Grave</v>
+        <v>Leve</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1874,27 +1954,27 @@
       </c>
       <c r="E29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1903,7 +1983,7 @@
       </c>
       <c r="B30" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Leve</v>
+        <v>Grave</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1915,7 +1995,7 @@
       </c>
       <c r="E30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1923,19 +2003,19 @@
       </c>
       <c r="G30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1944,7 +2024,7 @@
       </c>
       <c r="B31" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Medio</v>
+        <v>Leve</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1952,19 +2032,19 @@
       </c>
       <c r="D31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1972,11 +2052,11 @@
       </c>
       <c r="I31" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1985,7 +2065,7 @@
       </c>
       <c r="B32" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Medio</v>
+        <v>Grave</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -1993,19 +2073,19 @@
       </c>
       <c r="D32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -2013,14 +2093,14 @@
       </c>
       <c r="I32" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
@@ -2028,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -2036,12 +2116,1330 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="str">
+        <f>A1</f>
+        <v>Paciente</v>
+      </c>
+      <c r="B40" s="2" t="str">
+        <f>C1</f>
+        <v>Realizar examen de sangre</v>
+      </c>
+      <c r="C40" s="2" t="str">
+        <f>D1</f>
+        <v>Realizar tac</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f>E1</f>
+        <v>Realizar  resonancia</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f>F1</f>
+        <v>Realizar prueba de embarazo</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f>G1</f>
+        <v>Realizar prueba orinaría</v>
+      </c>
+      <c r="G40" s="2" t="str">
+        <f>H1</f>
+        <v>Realizar coprológico</v>
+      </c>
+      <c r="I40" s="2" t="str">
+        <f>B1</f>
+        <v xml:space="preserve">Gravedad </v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>3</v>
+      </c>
+      <c r="H41" s="2">
+        <f>SUM(B41:G41)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="str">
+        <f>A3</f>
+        <v>Paciente 1</v>
+      </c>
+      <c r="B42" s="2">
+        <f ca="1">B$41*C3</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <f ca="1">C$41*D3</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" ref="D42:G42" ca="1" si="5">D$41*E3</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H42" s="2">
+        <f ca="1">SUM(B42:G42)</f>
+        <v>4</v>
+      </c>
+      <c r="I42" s="2">
+        <f ca="1">IF(I3=0,8,IF(I3=1,15,10))</f>
+        <v>15</v>
+      </c>
+      <c r="J42" s="2">
+        <f ca="1">I42-H42</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="str">
+        <f>A4</f>
+        <v>Paciente 2</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" ref="B43:C71" ca="1" si="6">B$41*C4</f>
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" ref="D43:G43" ca="1" si="7">D$41*E4</f>
+        <v>3</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" ref="H43:H71" ca="1" si="8">SUM(B43:G43)</f>
+        <v>5</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" ref="I43:I71" ca="1" si="9">IF(I4=0,8,IF(I4=1,15,10))</f>
+        <v>15</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" ref="J43:J71" ca="1" si="10">I43-H43</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="str">
+        <f>A5</f>
+        <v>Paciente 3</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" ref="D44:G44" ca="1" si="11">D$41*E5</f>
+        <v>3</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="str">
+        <f>A6</f>
+        <v>Paciente 4</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" ref="D45:G45" ca="1" si="12">D$41*E6</f>
+        <v>3</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="str">
+        <f>A7</f>
+        <v>Paciente 5</v>
+      </c>
+      <c r="B46" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" ref="D46:G46" ca="1" si="13">D$41*E7</f>
+        <v>3</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="str">
+        <f>A8</f>
+        <v>Paciente 6</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" ref="D47:G47" ca="1" si="14">D$41*E8</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="str">
+        <f>A9</f>
+        <v>Paciente 7</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" ref="D48:G48" ca="1" si="15">D$41*E9</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="str">
+        <f>A10</f>
+        <v>Paciente 8</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" ref="D49:G49" ca="1" si="16">D$41*E10</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="str">
+        <f>A11</f>
+        <v>Paciente 9</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" ref="D50:G50" ca="1" si="17">D$41*E11</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="str">
+        <f>A12</f>
+        <v>Paciente 10</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" ref="D51:G51" ca="1" si="18">D$41*E12</f>
+        <v>3</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="str">
+        <f>A13</f>
+        <v>Paciente 11</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" ref="D52:G52" ca="1" si="19">D$41*E13</f>
+        <v>3</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="str">
+        <f>A14</f>
+        <v>Paciente 12</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" ref="D53:G53" ca="1" si="20">D$41*E14</f>
+        <v>3</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" ca="1" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="str">
+        <f>A15</f>
+        <v>Paciente 13</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" ref="D54:G54" ca="1" si="21">D$41*E15</f>
+        <v>3</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" ca="1" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="str">
+        <f>A16</f>
+        <v>Paciente 14</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" ref="D55:G55" ca="1" si="22">D$41*E16</f>
+        <v>3</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" ca="1" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="str">
+        <f>A17</f>
+        <v>Paciente 15</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" ref="D56:G56" ca="1" si="23">D$41*E17</f>
+        <v>3</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" ca="1" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" ca="1" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="str">
+        <f>A18</f>
+        <v>Paciente 16</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" ref="D57:G57" ca="1" si="24">D$41*E18</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" ca="1" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" ca="1" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="str">
+        <f>A19</f>
+        <v>Paciente 17</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" ref="D58:G58" ca="1" si="25">D$41*E19</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" ca="1" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" ca="1" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J58" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="str">
+        <f>A20</f>
+        <v>Paciente 18</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" ref="D59:G59" ca="1" si="26">D$41*E20</f>
+        <v>3</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" ca="1" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" ca="1" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" ca="1" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J59" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="str">
+        <f>A21</f>
+        <v>Paciente 19</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C60" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" ref="D60:G60" ca="1" si="27">D$41*E21</f>
+        <v>3</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" ca="1" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" ca="1" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" ca="1" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="I60" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="str">
+        <f>A22</f>
+        <v>Paciente 20</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" ref="D61:G61" ca="1" si="28">D$41*E22</f>
+        <v>3</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" ca="1" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="I61" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J61" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="str">
+        <f>A23</f>
+        <v>Paciente 21</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C62" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" ref="D62:G62" ca="1" si="29">D$41*E23</f>
+        <v>3</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" ca="1" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" ca="1" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" ca="1" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="I62" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="J62" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="str">
+        <f>A24</f>
+        <v>Paciente 22</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" ref="D63:G63" ca="1" si="30">D$41*E24</f>
+        <v>3</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" ca="1" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" ca="1" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" ca="1" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="I63" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="J63" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="str">
+        <f>A25</f>
+        <v>Paciente 23</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C64" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" ref="D64:G64" ca="1" si="31">D$41*E25</f>
+        <v>3</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" ca="1" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" ca="1" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" ca="1" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="I64" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="J64" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="str">
+        <f>A26</f>
+        <v>Paciente 24</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C65" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" ref="D65:G65" ca="1" si="32">D$41*E26</f>
+        <v>3</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" ca="1" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" ca="1" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" ca="1" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="I65" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="J65" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="str">
+        <f>A27</f>
+        <v>Paciente 25</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C66" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" ref="D66:G66" ca="1" si="33">D$41*E27</f>
+        <v>3</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" ca="1" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" ca="1" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" ca="1" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="str">
+        <f>A28</f>
+        <v>Paciente 26</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C67" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" ref="D67:G67" ca="1" si="34">D$41*E28</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" ca="1" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" ca="1" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="I67" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J67" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="str">
+        <f>A29</f>
+        <v>Paciente 27</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C68" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" ref="D68:G68" ca="1" si="35">D$41*E29</f>
+        <v>3</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" ca="1" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" ca="1" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" ca="1" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="I68" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="J68" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="str">
+        <f>A30</f>
+        <v>Paciente 28</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C69" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" ref="D69:G69" ca="1" si="36">D$41*E30</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" ca="1" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" ca="1" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" ca="1" si="36"/>
+        <v>3</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="I69" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="J69" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="str">
+        <f>A31</f>
+        <v>Paciente 29</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" ref="D70:G70" ca="1" si="37">D$41*E31</f>
+        <v>3</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" ca="1" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" ca="1" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" ca="1" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="I70" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="str">
+        <f>A32</f>
+        <v>Paciente 30</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="C71" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" ref="D71:G71" ca="1" si="38">D$41*E32</f>
+        <v>3</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" ca="1" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" ca="1" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" ca="1" si="38"/>
+        <v>3</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="I71" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="J71" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>-5</v>
       </c>
     </row>
   </sheetData>
@@ -2059,33 +3457,38 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:B32">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"Grave"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J32">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="between">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J32">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="between">
       <formula>4</formula>
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="between">
       <formula>4</formula>
       <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42:J71">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2096,8 +3499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A86551-955C-49EE-9C72-26E0BA536395}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2112,9 +3515,9 @@
       <c r="B1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -2123,9 +3526,9 @@
       <c r="B2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -2134,9 +3537,9 @@
       <c r="B3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
@@ -2145,9 +3548,9 @@
       <c r="B4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
@@ -2156,9 +3559,9 @@
       <c r="B5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
@@ -2167,9 +3570,9 @@
       <c r="B6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
@@ -2178,32 +3581,32 @@
       <c r="B7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D19" s="5"/>

--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis documentos\ANDREA\isis-3302-ProyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED91E45-9129-4C48-9AEC-33B76FEE935C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92889A8-C6F0-4614-963F-B9DC14747129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C307CFF9-2E0C-4868-9E05-DEFD082B7BA8}"/>
   </bookViews>
